--- a/Volatility_Test/DAXIndex.xlsx
+++ b/Volatility_Test/DAXIndex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -38,24 +38,6 @@
     <t>Adj Close</t>
   </si>
   <si>
-    <t>2016-12-20</t>
-  </si>
-  <si>
-    <t>2016-12-19</t>
-  </si>
-  <si>
-    <t>2016-12-16</t>
-  </si>
-  <si>
-    <t>2016-12-15</t>
-  </si>
-  <si>
-    <t>2016-12-14</t>
-  </si>
-  <si>
-    <t>2016-12-13</t>
-  </si>
-  <si>
     <t>2016-12-12</t>
   </si>
   <si>
@@ -798,6 +780,21 @@
   </si>
   <si>
     <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>2015-12-18</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t>2015-12-16</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
+  </si>
+  <si>
+    <t>2015-12-14</t>
   </si>
 </sst>
 </file>
@@ -898,7 +895,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -941,22 +938,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>11415.299805</v>
+        <v>11198.419922</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>11472.080078</v>
+        <v>11213.040039</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>11406.950195</v>
+        <v>11141.860352</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>11464.740234</v>
+        <v>11190.209961</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>75800700</v>
+        <v>89811700</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>11464.740234</v>
+        <v>11190.209961</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,22 +961,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11384.030273</v>
+        <v>11170.179688</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>11426.700195</v>
+        <v>11231.69043</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>11380.120117</v>
+        <v>11145.980469</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>11426.700195</v>
+        <v>11203.629883</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>80884600</v>
+        <v>103830000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11426.700195</v>
+        <v>11203.629883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,22 +984,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11368.639648</v>
+        <v>11035.759766</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>11451.570312</v>
+        <v>11193.099609</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>11357.150391</v>
+        <v>10990.599609</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11404.009766</v>
+        <v>11179.419922</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>178636700</v>
+        <v>174835000</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>11404.009766</v>
+        <v>11179.419922</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,22 +1007,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>11267.030273</v>
+        <v>10885.049805</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11387.110352</v>
+        <v>10988.790039</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>11267.030273</v>
+        <v>10873.80957</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>11366.400391</v>
+        <v>10986.69043</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>141375800</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11366.400391</v>
+        <v>10986.69043</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,22 +1030,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11254.469727</v>
+        <v>10685</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>11281.429688</v>
+        <v>10786.259766</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>11235.240234</v>
+        <v>10668.669922</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>11244.839844</v>
+        <v>10775.320312</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>90297900</v>
+        <v>138410900</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11244.839844</v>
+        <v>10775.320312</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,22 +1053,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11194.669922</v>
+        <v>10494.639648</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>11300.44043</v>
+        <v>10730.740234</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>11191.639648</v>
+        <v>10493.620117</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>11284.650391</v>
+        <v>10684.830078</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>98486400</v>
+        <v>104048900</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>11284.650391</v>
+        <v>10684.830078</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,22 +1076,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11198.419922</v>
+        <v>10436.480469</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>11213.040039</v>
+        <v>10545.370117</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>11141.860352</v>
+        <v>10402.589844</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>11190.209961</v>
+        <v>10513.349609</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>89811700</v>
+        <v>83810700</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11190.209961</v>
+        <v>10513.349609</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,22 +1099,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>11170.179688</v>
+        <v>10593.05957</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>11231.69043</v>
+        <v>10627.099609</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>11145.980469</v>
+        <v>10502.540039</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>11203.629883</v>
+        <v>10534.049805</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>103830000</v>
+        <v>90595700</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>11203.629883</v>
+        <v>10534.049805</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11035.759766</v>
+        <v>10615.790039</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>11193.099609</v>
+        <v>10691.669922</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10990.599609</v>
+        <v>10606.040039</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11179.419922</v>
+        <v>10640.299805</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>174835000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>11179.419922</v>
+        <v>10640.299805</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,22 +1145,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10885.049805</v>
+        <v>10562.150391</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10988.790039</v>
+        <v>10624.759766</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10873.80957</v>
+        <v>10539.230469</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>10986.69043</v>
+        <v>10620.490234</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>10986.69043</v>
+        <v>10620.490234</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,22 +1168,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10685</v>
+        <v>10655.919922</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10786.259766</v>
+        <v>10658.360352</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10668.669922</v>
+        <v>10554.94043</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>10775.320312</v>
+        <v>10582.669922</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>138410900</v>
+        <v>73586600</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>10775.320312</v>
+        <v>10582.669922</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,22 +1191,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10494.639648</v>
+        <v>10700.169922</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>10730.740234</v>
+        <v>10710.160156</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10493.620117</v>
+        <v>10649.370117</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10684.830078</v>
+        <v>10699.269531</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>104048900</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>10684.830078</v>
+        <v>10699.269531</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,22 +1214,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10436.480469</v>
+        <v>10689.160156</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10545.370117</v>
+        <v>10715.650391</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10402.589844</v>
+        <v>10653.620117</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>10513.349609</v>
+        <v>10689.259766</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>83810700</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>10513.349609</v>
+        <v>10689.259766</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,22 +1237,22 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10593.05957</v>
+        <v>10718.889648</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>10627.099609</v>
+        <v>10742.660156</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10502.540039</v>
+        <v>10602.209961</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>10534.049805</v>
+        <v>10662.44043</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>90595700</v>
+        <v>92668900</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>10534.049805</v>
+        <v>10662.44043</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,22 +1260,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10615.790039</v>
+        <v>10745.669922</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>10691.669922</v>
+        <v>10767.730469</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10606.040039</v>
+        <v>10707.870117</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>10640.299805</v>
+        <v>10713.849609</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>10640.299805</v>
+        <v>10713.849609</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,22 +1283,22 @@
         <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10562.150391</v>
+        <v>10697.950195</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>10624.759766</v>
+        <v>10727.089844</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10539.230469</v>
+        <v>10595.139648</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10620.490234</v>
+        <v>10685.129883</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>10620.490234</v>
+        <v>10685.129883</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,22 +1306,22 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10655.919922</v>
+        <v>10735.049805</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10658.360352</v>
+        <v>10737.980469</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10554.94043</v>
+        <v>10649.120117</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>10582.669922</v>
+        <v>10664.55957</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>73586600</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>10582.669922</v>
+        <v>10664.55957</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,22 +1329,22 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10700.169922</v>
+        <v>10640.360352</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>10710.160156</v>
+        <v>10686.879883</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10649.370117</v>
+        <v>10604.320312</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>10699.269531</v>
+        <v>10685.540039</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>10699.269531</v>
+        <v>10685.540039</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,22 +1352,22 @@
         <v>25</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10689.160156</v>
+        <v>10726.339844</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>10715.650391</v>
+        <v>10735.469727</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10653.620117</v>
+        <v>10610.269531</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10689.259766</v>
+        <v>10663.870117</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>95844100</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>10689.259766</v>
+        <v>10663.870117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,22 +1375,22 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10718.889648</v>
+        <v>10720.929688</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>10742.660156</v>
+        <v>10748.30957</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10602.209961</v>
+        <v>10666.169922</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>10662.44043</v>
+        <v>10735.139648</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>92668900</v>
+        <v>104106500</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>10662.44043</v>
+        <v>10735.139648</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,22 +1398,22 @@
         <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10745.669922</v>
+        <v>10750.620117</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10767.730469</v>
+        <v>10802.389648</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10707.870117</v>
+        <v>10677.089844</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10713.849609</v>
+        <v>10693.69043</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>10713.849609</v>
+        <v>10693.69043</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,22 +1421,22 @@
         <v>28</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10697.950195</v>
+        <v>10702.879883</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10727.089844</v>
+        <v>10714.469727</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10595.139648</v>
+        <v>10584.30957</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>10685.129883</v>
+        <v>10667.950195</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>129405900</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>10685.129883</v>
+        <v>10667.950195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,22 +1444,22 @@
         <v>29</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10735.049805</v>
+        <v>10710.040039</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10737.980469</v>
+        <v>10793.969727</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10649.120117</v>
+        <v>10575.959961</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10664.55957</v>
+        <v>10630.120117</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>185559300</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>10664.55957</v>
+        <v>10630.120117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,22 +1467,22 @@
         <v>30</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10640.360352</v>
+        <v>10181.889648</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>10686.879883</v>
+        <v>10646.549805</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10604.320312</v>
+        <v>10174.919922</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>10685.540039</v>
+        <v>10646.009766</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>10685.540039</v>
+        <v>10646.009766</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,22 +1490,22 @@
         <v>31</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10726.339844</v>
+        <v>10449.519531</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10735.469727</v>
+        <v>10486.040039</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10610.269531</v>
+        <v>10414.830078</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>10663.870117</v>
+        <v>10482.320312</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>95844100</v>
+        <v>75733000</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>10663.870117</v>
+        <v>10482.320312</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,22 +1513,22 @@
         <v>32</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>10720.929688</v>
+        <v>10410.55957</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>10748.30957</v>
+        <v>10456.950195</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10666.169922</v>
+        <v>10381.139648</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10735.139648</v>
+        <v>10456.950195</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>104106500</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>10735.139648</v>
+        <v>10456.950195</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,22 +1536,22 @@
         <v>33</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10750.620117</v>
+        <v>10281.870117</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>10802.389648</v>
+        <v>10286.389648</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10677.089844</v>
+        <v>10212.530273</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>10693.69043</v>
+        <v>10259.129883</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>10693.69043</v>
+        <v>10259.129883</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,22 +1559,22 @@
         <v>34</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>10702.879883</v>
+        <v>10341.860352</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>10714.469727</v>
+        <v>10406.719727</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10584.30957</v>
+        <v>10325.879883</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>10667.950195</v>
+        <v>10325.879883</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>129405900</v>
+        <v>82700800</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>10667.950195</v>
+        <v>10325.879883</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,22 +1582,22 @@
         <v>35</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10710.040039</v>
+        <v>10443.519531</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10793.969727</v>
+        <v>10460.929688</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>10575.959961</v>
+        <v>10368.200195</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>10630.120117</v>
+        <v>10370.929688</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>185559300</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>10630.120117</v>
+        <v>10370.929688</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,22 +1605,22 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10181.889648</v>
+        <v>10724.139648</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>10646.549805</v>
+        <v>10730.480469</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10174.919922</v>
+        <v>10506.389648</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>10646.009766</v>
+        <v>10526.160156</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>75642800</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>10646.009766</v>
+        <v>10526.160156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,22 +1628,22 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10449.519531</v>
+        <v>10658.669922</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>10486.040039</v>
+        <v>10687.740234</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10414.830078</v>
+        <v>10634.339844</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>10482.320312</v>
+        <v>10665.009766</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>75733000</v>
+        <v>68348800</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>10482.320312</v>
+        <v>10665.009766</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,22 +1651,22 @@
         <v>38</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10410.55957</v>
+        <v>10634.990234</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>10456.950195</v>
+        <v>10716.160156</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10381.139648</v>
+        <v>10583.570312</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10456.950195</v>
+        <v>10696.19043</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>70574500</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>10456.950195</v>
+        <v>10696.19043</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,22 +1674,22 @@
         <v>39</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10281.870117</v>
+        <v>10691.860352</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>10286.389648</v>
+        <v>10772.669922</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>10212.530273</v>
+        <v>10656.179688</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>10259.129883</v>
+        <v>10717.080078</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>81591200</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>10259.129883</v>
+        <v>10717.080078</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,22 +1697,22 @@
         <v>40</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10341.860352</v>
+        <v>10726.219727</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>10406.719727</v>
+        <v>10737.790039</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10325.879883</v>
+        <v>10632.290039</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>10325.879883</v>
+        <v>10709.679688</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>82700800</v>
+        <v>75861000</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>10325.879883</v>
+        <v>10709.679688</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,22 +1720,22 @@
         <v>41</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10443.519531</v>
+        <v>10786.25</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>10460.929688</v>
+        <v>10827.719727</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10368.200195</v>
+        <v>10738.360352</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>10370.929688</v>
+        <v>10757.30957</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>89706100</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>10370.929688</v>
+        <v>10757.30957</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,22 +1743,22 @@
         <v>42</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10724.139648</v>
+        <v>10743.870117</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>10730.480469</v>
+        <v>10820.080078</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>10506.389648</v>
+        <v>10743.870117</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>10526.160156</v>
+        <v>10761.169922</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>75642800</v>
+        <v>77496000</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>10526.160156</v>
+        <v>10761.169922</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,22 +1766,22 @@
         <v>43</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10658.669922</v>
+        <v>10710.509766</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>10687.740234</v>
+        <v>10737.259766</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>10634.339844</v>
+        <v>10672.349609</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>10665.009766</v>
+        <v>10710.730469</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>68348800</v>
+        <v>84256600</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>10665.009766</v>
+        <v>10710.730469</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,22 +1789,22 @@
         <v>44</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10634.990234</v>
+        <v>10665.75</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>10716.160156</v>
+        <v>10748.410156</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>10583.570312</v>
+        <v>10592.889648</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>10696.19043</v>
+        <v>10701.389648</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>70574500</v>
+        <v>103219300</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>10696.19043</v>
+        <v>10701.389648</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,22 +1812,22 @@
         <v>45</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10691.860352</v>
+        <v>10626.990234</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>10772.669922</v>
+        <v>10672.219727</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10656.179688</v>
+        <v>10587.709961</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>10717.080078</v>
+        <v>10645.679688</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>81591200</v>
+        <v>73697200</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>10717.080078</v>
+        <v>10645.679688</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,22 +1835,22 @@
         <v>46</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10726.219727</v>
+        <v>10560.139648</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>10737.790039</v>
+        <v>10657.339844</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>10632.290039</v>
+        <v>10543.69043</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>10709.679688</v>
+        <v>10631.549805</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>75861000</v>
+        <v>88963500</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>10709.679688</v>
+        <v>10631.549805</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,22 +1858,22 @@
         <v>47</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10786.25</v>
+        <v>10544.69043</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>10827.719727</v>
+        <v>10583.700195</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10738.360352</v>
+        <v>10491.280273</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>10757.30957</v>
+        <v>10503.570312</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>89706100</v>
+        <v>61818000</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>10757.30957</v>
+        <v>10503.570312</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,22 +1881,22 @@
         <v>48</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10743.870117</v>
+        <v>10450.05957</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>10820.080078</v>
+        <v>10615.299805</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>10743.870117</v>
+        <v>10449.469727</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>10761.169922</v>
+        <v>10580.379883</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>77496000</v>
+        <v>98226700</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>10761.169922</v>
+        <v>10580.379883</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,22 +1904,22 @@
         <v>49</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10710.509766</v>
+        <v>10425.790039</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>10737.259766</v>
+        <v>10430.830078</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10672.349609</v>
+        <v>10349.05957</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>10710.730469</v>
+        <v>10414.070312</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>84256600</v>
+        <v>95793600</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>10710.730469</v>
+        <v>10414.070312</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,22 +1927,22 @@
         <v>50</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>10665.75</v>
+        <v>10572.719727</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>10748.410156</v>
+        <v>10604</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10592.889648</v>
+        <v>10503.200195</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>10701.389648</v>
+        <v>10523.070312</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>103219300</v>
+        <v>87689500</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>10701.389648</v>
+        <v>10523.070312</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,22 +1950,22 @@
         <v>51</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10626.990234</v>
+        <v>10600.94043</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>10672.219727</v>
+        <v>10692.360352</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10587.709961</v>
+        <v>10568.719727</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>10645.679688</v>
+        <v>10577.160156</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>73697200</v>
+        <v>95044500</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>10645.679688</v>
+        <v>10577.160156</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,22 +1973,22 @@
         <v>52</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>10560.139648</v>
+        <v>10496.009766</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>10657.339844</v>
+        <v>10639.410156</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10543.69043</v>
+        <v>10454.980469</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10631.549805</v>
+        <v>10624.080078</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>88963500</v>
+        <v>98623700</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>10631.549805</v>
+        <v>10624.080078</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,22 +1996,22 @@
         <v>53</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10544.69043</v>
+        <v>10549.69043</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>10583.700195</v>
+        <v>10579.089844</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>10491.280273</v>
+        <v>10465.349609</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>10503.570312</v>
+        <v>10490.860352</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>61818000</v>
+        <v>121513900</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>10503.570312</v>
+        <v>10490.860352</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,22 +2019,22 @@
         <v>54</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10450.05957</v>
+        <v>10641.129883</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>10615.299805</v>
+        <v>10641.129883</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10449.469727</v>
+        <v>10537.679688</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>10580.379883</v>
+        <v>10568.799805</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>98226700</v>
+        <v>105395600</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>10580.379883</v>
+        <v>10568.799805</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,22 +2042,22 @@
         <v>55</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10425.790039</v>
+        <v>10535.620117</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>10430.830078</v>
+        <v>10622.44043</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>10349.05957</v>
+        <v>10486.629883</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>10414.070312</v>
+        <v>10585.780273</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>95793600</v>
+        <v>93834300</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10414.070312</v>
+        <v>10585.780273</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,22 +2065,22 @@
         <v>56</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10572.719727</v>
+        <v>10492.969727</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>10604</v>
+        <v>10646.719727</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>10503.200195</v>
+        <v>10492.25</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>10523.070312</v>
+        <v>10619.610352</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>87689500</v>
+        <v>127581300</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>10523.070312</v>
+        <v>10619.610352</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,22 +2088,22 @@
         <v>57</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10600.94043</v>
+        <v>10240.69043</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>10692.360352</v>
+        <v>10531.259766</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>10568.719727</v>
+        <v>10189.94043</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>10577.160156</v>
+        <v>10511.019531</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>95044500</v>
+        <v>182523300</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>10577.160156</v>
+        <v>10511.019531</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,22 +2111,22 @@
         <v>58</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10496.009766</v>
+        <v>10545.599609</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>10639.410156</v>
+        <v>10575.339844</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>10454.980469</v>
+        <v>10370.230469</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>10624.080078</v>
+        <v>10405.540039</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>98623700</v>
+        <v>100763500</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>10624.080078</v>
+        <v>10405.540039</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,22 +2134,22 @@
         <v>59</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10549.69043</v>
+        <v>10425.889648</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>10579.089844</v>
+        <v>10518.360352</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>10465.349609</v>
+        <v>10417.150391</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>10490.860352</v>
+        <v>10438.339844</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>121513900</v>
+        <v>85106500</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>10490.860352</v>
+        <v>10438.339844</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,22 +2157,22 @@
         <v>60</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10641.129883</v>
+        <v>10451.400391</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>10641.129883</v>
+        <v>10455.879883</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>10537.679688</v>
+        <v>10265.69043</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>10568.799805</v>
+        <v>10361.480469</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>105395600</v>
+        <v>108139900</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>10568.799805</v>
+        <v>10361.480469</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,22 +2180,22 @@
         <v>61</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10535.620117</v>
+        <v>10555.19043</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>10622.44043</v>
+        <v>10560.830078</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>10486.629883</v>
+        <v>10385.629883</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>10585.780273</v>
+        <v>10393.709961</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>93834300</v>
+        <v>102283700</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>10585.780273</v>
+        <v>10393.709961</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,22 +2203,22 @@
         <v>62</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10492.969727</v>
+        <v>10662.490234</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>10646.719727</v>
+        <v>10675.620117</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>10492.25</v>
+        <v>10610.950195</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>10619.610352</v>
+        <v>10626.969727</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>127581300</v>
+        <v>67901700</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>10619.610352</v>
+        <v>10626.969727</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,22 +2226,22 @@
         <v>63</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10240.69043</v>
+        <v>10518.530273</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>10531.259766</v>
+        <v>10705.400391</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>10189.94043</v>
+        <v>10517.799805</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>10511.019531</v>
+        <v>10674.179688</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>182523300</v>
+        <v>95985000</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>10511.019531</v>
+        <v>10674.179688</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,22 +2249,22 @@
         <v>64</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>10545.599609</v>
+        <v>10496.429688</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>10575.339844</v>
+        <v>10535.25</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>10370.230469</v>
+        <v>10427.219727</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>10405.540039</v>
+        <v>10436.490234</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>100763500</v>
+        <v>76659200</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>10405.540039</v>
+        <v>10436.490234</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,22 +2272,22 @@
         <v>65</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10425.889648</v>
+        <v>10374.679688</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>10518.360352</v>
+        <v>10465.950195</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10417.150391</v>
+        <v>10371.620117</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>10438.339844</v>
+        <v>10393.860352</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>85106500</v>
+        <v>71825800</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>10438.339844</v>
+        <v>10393.860352</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,22 +2295,22 @@
         <v>66</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>10451.400391</v>
+        <v>10349.870117</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>10455.879883</v>
+        <v>10381.929688</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>10265.69043</v>
+        <v>10326.75</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>10361.480469</v>
+        <v>10373.870117</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>108139900</v>
+        <v>70609900</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>10361.480469</v>
+        <v>10373.870117</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,22 +2318,22 @@
         <v>67</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>10555.19043</v>
+        <v>10403.669922</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>10560.830078</v>
+        <v>10427.200195</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>10385.629883</v>
+        <v>10262.19043</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>10393.709961</v>
+        <v>10276.169922</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>102283700</v>
+        <v>208528600</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>10393.709961</v>
+        <v>10276.169922</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,22 +2341,22 @@
         <v>68</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10662.490234</v>
+        <v>10360.839844</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>10675.620117</v>
+        <v>10446.400391</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>10610.950195</v>
+        <v>10337.230469</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>10626.969727</v>
+        <v>10431.200195</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>67901700</v>
+        <v>80876200</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>10626.969727</v>
+        <v>10431.200195</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,22 +2364,22 @@
         <v>69</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10518.530273</v>
+        <v>10410.299805</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>10705.400391</v>
+        <v>10450.410156</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>10517.799805</v>
+        <v>10369.719727</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>10674.179688</v>
+        <v>10378.400391</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>95985000</v>
+        <v>91180200</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>10674.179688</v>
+        <v>10378.400391</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,22 +2387,22 @@
         <v>70</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10496.429688</v>
+        <v>10483.070312</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>10535.25</v>
+        <v>10507.040039</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>10427.219727</v>
+        <v>10382.849609</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>10436.490234</v>
+        <v>10386.599609</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>76659200</v>
+        <v>87264800</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>10436.490234</v>
+        <v>10386.599609</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,22 +2410,22 @@
         <v>71</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>10374.679688</v>
+        <v>10380.459961</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>10465.950195</v>
+        <v>10431.900391</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>10371.620117</v>
+        <v>10299.379883</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>10393.860352</v>
+        <v>10431.769531</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>71825800</v>
+        <v>167050700</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>10393.860352</v>
+        <v>10431.769531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,22 +2433,22 @@
         <v>72</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>10349.870117</v>
+        <v>10641.80957</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>10381.929688</v>
+        <v>10671.660156</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>10326.75</v>
+        <v>10539.30957</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>10373.870117</v>
+        <v>10573.44043</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>70609900</v>
+        <v>98867100</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>10373.870117</v>
+        <v>10573.44043</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,22 +2456,22 @@
         <v>73</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>10403.669922</v>
+        <v>10749.820312</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>10427.200195</v>
+        <v>10780.419922</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>10262.19043</v>
+        <v>10570.05957</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>10276.169922</v>
+        <v>10675.290039</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>208528600</v>
+        <v>90892100</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>10276.169922</v>
+        <v>10675.290039</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,22 +2479,22 @@
         <v>74</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>10360.839844</v>
+        <v>10706.860352</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>10446.400391</v>
+        <v>10775.929688</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>10337.230469</v>
+        <v>10659.730469</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>10431.200195</v>
+        <v>10752.980469</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>80876200</v>
+        <v>77370600</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>10431.200195</v>
+        <v>10752.980469</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,22 +2502,22 @@
         <v>75</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>10410.299805</v>
+        <v>10704.889648</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>10450.410156</v>
+        <v>10742.490234</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>10369.719727</v>
+        <v>10657.429688</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>10378.400391</v>
+        <v>10687.139648</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>91180200</v>
+        <v>65211500</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>10378.400391</v>
+        <v>10687.139648</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,22 +2525,22 @@
         <v>76</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>10483.070312</v>
+        <v>10712.169922</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>10507.040039</v>
+        <v>10740.389648</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>10382.849609</v>
+        <v>10671.549805</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>10386.599609</v>
+        <v>10672.219727</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>87264800</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>10386.599609</v>
+        <v>10672.219727</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,22 +2548,22 @@
         <v>77</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>10380.459961</v>
+        <v>10570.700195</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>10431.900391</v>
+        <v>10693.639648</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>10299.379883</v>
+        <v>10516.80957</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>10431.769531</v>
+        <v>10683.820312</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>167050700</v>
+        <v>81176300</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>10431.769531</v>
+        <v>10683.820312</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,22 +2571,22 @@
         <v>78</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>10641.80957</v>
+        <v>10622.330078</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>10671.660156</v>
+        <v>10676.320312</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>10539.30957</v>
+        <v>10492.290039</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>10573.44043</v>
+        <v>10534.30957</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>98867100</v>
+        <v>101346300</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>10573.44043</v>
+        <v>10534.30957</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,22 +2594,22 @@
         <v>79</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>10749.820312</v>
+        <v>10627.179688</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>10780.419922</v>
+        <v>10666.80957</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>10570.05957</v>
+        <v>10591.44043</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>10675.290039</v>
+        <v>10592.69043</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>90892100</v>
+        <v>87245500</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>10675.290039</v>
+        <v>10592.69043</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,22 +2617,22 @@
         <v>80</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>10706.860352</v>
+        <v>10588.709961</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>10775.929688</v>
+        <v>10688.480469</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>10659.730469</v>
+        <v>10588.480469</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>10752.980469</v>
+        <v>10657.639648</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>77370600</v>
+        <v>60222800</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>10752.980469</v>
+        <v>10657.639648</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,22 +2640,22 @@
         <v>81</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>10704.889648</v>
+        <v>10503.879883</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>10742.490234</v>
+        <v>10566.69043</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>10657.429688</v>
+        <v>10441.80957</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>10687.139648</v>
+        <v>10544.44043</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>65211500</v>
+        <v>34008000</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>10687.139648</v>
+        <v>10544.44043</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,22 +2663,22 @@
         <v>82</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10712.169922</v>
+        <v>10512.209961</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>10740.389648</v>
+        <v>10613.05957</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>10671.549805</v>
+        <v>10484.030273</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>10672.219727</v>
+        <v>10587.769531</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
+        <v>48189200</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>10672.219727</v>
+        <v>10587.769531</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,22 +2686,22 @@
         <v>83</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>10570.700195</v>
+        <v>10576.55957</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>10693.639648</v>
+        <v>10576.55957</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>10516.80957</v>
+        <v>10470.730469</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>10683.820312</v>
+        <v>10529.589844</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>81176300</v>
+        <v>53105500</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>10683.820312</v>
+        <v>10529.589844</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,22 +2709,22 @@
         <v>84</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>10622.330078</v>
+        <v>10531.139648</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>10676.320312</v>
+        <v>10653.169922</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>10492.290039</v>
+        <v>10515.160156</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>10534.30957</v>
+        <v>10622.969727</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>101346300</v>
+        <v>61030600</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>10534.30957</v>
+        <v>10622.969727</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,22 +2732,22 @@
         <v>85</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10627.179688</v>
+        <v>10542.950195</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>10666.80957</v>
+        <v>10627</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>10591.44043</v>
+        <v>10516.269531</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>10592.69043</v>
+        <v>10592.879883</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>87245500</v>
+        <v>55918700</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>10592.69043</v>
+        <v>10592.879883</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,22 +2755,22 @@
         <v>86</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>10588.709961</v>
+        <v>10528.879883</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>10688.480469</v>
+        <v>10656.25</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>10588.480469</v>
+        <v>10443.480469</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>10657.639648</v>
+        <v>10494.349609</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>60222800</v>
+        <v>58911200</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>10657.639648</v>
+        <v>10494.349609</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,22 +2778,22 @@
         <v>87</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10503.879883</v>
+        <v>10613.230469</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>10566.69043</v>
+        <v>10618.110352</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>10441.80957</v>
+        <v>10490.959961</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>10544.44043</v>
+        <v>10544.360352</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>34008000</v>
+        <v>73127400</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>10544.44043</v>
+        <v>10544.360352</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,22 +2801,22 @@
         <v>88</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>10512.209961</v>
+        <v>10613.080078</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>10613.05957</v>
+        <v>10625.330078</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>10484.030273</v>
+        <v>10548.969727</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>10587.769531</v>
+        <v>10603.030273</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>48189200</v>
+        <v>53771500</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>10587.769531</v>
+        <v>10603.030273</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,22 +2824,22 @@
         <v>89</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>10576.55957</v>
+        <v>10694.549805</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>10576.55957</v>
+        <v>10696.759766</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>10470.730469</v>
+        <v>10516.049805</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>10529.589844</v>
+        <v>10537.669922</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>53105500</v>
+        <v>66557600</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>10529.589844</v>
+        <v>10537.669922</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,22 +2847,22 @@
         <v>90</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>10531.139648</v>
+        <v>10666.719727</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>10653.169922</v>
+        <v>10737.070312</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>10515.160156</v>
+        <v>10634.679688</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>10622.969727</v>
+        <v>10676.650391</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>61030600</v>
+        <v>61912700</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>10622.969727</v>
+        <v>10676.650391</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,22 +2870,22 @@
         <v>91</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10542.950195</v>
+        <v>10719.139648</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>10627</v>
+        <v>10802.320312</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>10516.269531</v>
+        <v>10712.129883</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>10592.879883</v>
+        <v>10739.209961</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>55918700</v>
+        <v>41626500</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>10592.879883</v>
+        <v>10739.209961</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,22 +2893,22 @@
         <v>92</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10528.879883</v>
+        <v>10718.330078</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>10656.25</v>
+        <v>10735.110352</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>10443.480469</v>
+        <v>10685.519531</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>10494.349609</v>
+        <v>10713.429688</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>58911200</v>
+        <v>58650500</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>10494.349609</v>
+        <v>10713.429688</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,22 +2916,22 @@
         <v>93</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10613.230469</v>
+        <v>10687.570312</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>10618.110352</v>
+        <v>10742.839844</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>10490.959961</v>
+        <v>10635.419922</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>10544.360352</v>
+        <v>10742.839844</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>73127400</v>
+        <v>71045300</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>10544.360352</v>
+        <v>10742.839844</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,22 +2939,22 @@
         <v>94</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10613.080078</v>
+        <v>10676.900391</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>10625.330078</v>
+        <v>10708.25</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>10548.969727</v>
+        <v>10635.110352</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>10603.030273</v>
+        <v>10650.889648</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>53771500</v>
+        <v>98072700</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>10603.030273</v>
+        <v>10650.889648</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,22 +2962,22 @@
         <v>95</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10694.549805</v>
+        <v>10438.599609</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>10696.759766</v>
+        <v>10701.330078</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>10516.049805</v>
+        <v>10433.790039</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>10537.669922</v>
+        <v>10692.900391</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>66557600</v>
+        <v>79465900</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>10537.669922</v>
+        <v>10692.900391</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,22 +2985,22 @@
         <v>96</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10666.719727</v>
+        <v>10407.5</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>10737.070312</v>
+        <v>10478.75</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>10634.679688</v>
+        <v>10403.469727</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>10676.650391</v>
+        <v>10432.360352</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>61912700</v>
+        <v>64859100</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>10676.650391</v>
+        <v>10432.360352</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,22 +3008,22 @@
         <v>97</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10719.139648</v>
+        <v>10242.879883</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>10802.320312</v>
+        <v>10374.330078</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>10712.129883</v>
+        <v>10216.639648</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>10739.209961</v>
+        <v>10367.209961</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>41626500</v>
+        <v>80650100</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>10739.209961</v>
+        <v>10367.209961</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,22 +3031,22 @@
         <v>98</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10718.330078</v>
+        <v>10237.080078</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>10735.110352</v>
+        <v>10282.169922</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>10685.519531</v>
+        <v>10182.400391</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>10713.429688</v>
+        <v>10227.860352</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>58650500</v>
+        <v>76824100</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>10713.429688</v>
+        <v>10227.860352</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,22 +3054,22 @@
         <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10687.570312</v>
+        <v>10150.129883</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>10742.839844</v>
+        <v>10189.150391</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>10635.419922</v>
+        <v>10092.530273</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>10742.839844</v>
+        <v>10170.209961</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>71045300</v>
+        <v>87267300</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>10742.839844</v>
+        <v>10170.209961</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,22 +3077,22 @@
         <v>100</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10676.900391</v>
+        <v>10328.870117</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>10708.25</v>
+        <v>10330.639648</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>10635.110352</v>
+        <v>10128.980469</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>10650.889648</v>
+        <v>10144.339844</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>98072700</v>
+        <v>120768700</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>10650.889648</v>
+        <v>10144.339844</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,22 +3100,22 @@
         <v>101</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10438.599609</v>
+        <v>10426.360352</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>10701.330078</v>
+        <v>10459.339844</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>10433.790039</v>
+        <v>10277.370117</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>10692.900391</v>
+        <v>10330.519531</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>79465900</v>
+        <v>82210200</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>10692.900391</v>
+        <v>10330.519531</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,22 +3123,22 @@
         <v>102</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10407.5</v>
+        <v>10320.820312</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>10478.75</v>
+        <v>10355.30957</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>10403.469727</v>
+        <v>10287.320312</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>10432.360352</v>
+        <v>10337.5</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>64859100</v>
+        <v>91318900</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>10432.360352</v>
+        <v>10337.5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,22 +3146,22 @@
         <v>103</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10242.879883</v>
+        <v>10309.919922</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>10374.330078</v>
+        <v>10381.900391</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>10216.639648</v>
+        <v>10264.389648</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>10367.209961</v>
+        <v>10274.929688</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>80650100</v>
+        <v>0</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>10367.209961</v>
+        <v>10274.929688</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,22 +3169,22 @@
         <v>104</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10237.080078</v>
+        <v>10314.429688</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>10282.169922</v>
+        <v>10352.320312</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>10182.400391</v>
+        <v>10298.400391</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>10227.860352</v>
+        <v>10319.549805</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>76824100</v>
+        <v>83288300</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>10227.860352</v>
+        <v>10319.549805</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,22 +3192,22 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>10150.129883</v>
+        <v>10199.660156</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>10189.150391</v>
+        <v>10275.410156</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>10092.530273</v>
+        <v>10150</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>10170.209961</v>
+        <v>10247.759766</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>87267300</v>
+        <v>77141500</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>10170.209961</v>
+        <v>10247.759766</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,22 +3215,22 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10328.870117</v>
+        <v>10155.200195</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>10330.639648</v>
+        <v>10264.05957</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>10128.980469</v>
+        <v>10125.219727</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>10144.339844</v>
+        <v>10198.240234</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>120768700</v>
+        <v>56796600</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>10144.339844</v>
+        <v>10198.240234</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,22 +3238,22 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>10426.360352</v>
+        <v>10130.509766</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>10459.339844</v>
+        <v>10181.240234</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>10277.370117</v>
+        <v>10073.280273</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>10330.519531</v>
+        <v>10147.459961</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>82210200</v>
+        <v>60843200</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>10330.519531</v>
+        <v>10147.459961</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,22 +3261,22 @@
         <v>108</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>10320.820312</v>
+        <v>10195.400391</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>10355.30957</v>
+        <v>10195.650391</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>10287.320312</v>
+        <v>10090.120117</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>10337.5</v>
+        <v>10156.209961</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>91318900</v>
+        <v>94605600</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>10337.5</v>
+        <v>10156.209961</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,22 +3284,22 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>10309.919922</v>
+        <v>10054.540039</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>10381.900391</v>
+        <v>10146.709961</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>10264.389648</v>
+        <v>9991.650391</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>10274.929688</v>
+        <v>10142.009766</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0</v>
+        <v>77317900</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>10274.929688</v>
+        <v>10142.009766</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,22 +3307,22 @@
         <v>110</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>10314.429688</v>
+        <v>10038.950195</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>10352.320312</v>
+        <v>10050.769531</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>10298.400391</v>
+        <v>9923.639648</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>10319.549805</v>
+        <v>9981.240234</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>83288300</v>
+        <v>67213700</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>10319.549805</v>
+        <v>9981.240234</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,22 +3330,22 @@
         <v>111</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>10199.660156</v>
+        <v>10079.030273</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>10275.410156</v>
+        <v>10160.299805</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>10150</v>
+        <v>10011.839844</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>10247.759766</v>
+        <v>10063.129883</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>77141500</v>
+        <v>68620600</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>10247.759766</v>
+        <v>10063.129883</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,22 +3353,22 @@
         <v>112</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>10155.200195</v>
+        <v>10031.179688</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>10264.05957</v>
+        <v>10098.75</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>10125.219727</v>
+        <v>9987.049805</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>10198.240234</v>
+        <v>10066.900391</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>56796600</v>
+        <v>87292700</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>10198.240234</v>
+        <v>10066.900391</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,22 +3376,22 @@
         <v>113</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>10130.509766</v>
+        <v>10058.490234</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>10181.240234</v>
+        <v>10109.860352</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>10073.280273</v>
+        <v>9984.549805</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>10147.459961</v>
+        <v>10068.299805</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>60843200</v>
+        <v>97397700</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>10147.459961</v>
+        <v>10068.299805</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,22 +3399,22 @@
         <v>114</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>10195.400391</v>
+        <v>9941.990234</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>10195.650391</v>
+        <v>10001.870117</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>10090.120117</v>
+        <v>9919.410156</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>10156.209961</v>
+        <v>9930.709961</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>94605600</v>
+        <v>93416800</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>10156.209961</v>
+        <v>9930.709961</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,22 +3422,22 @@
         <v>115</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>10054.540039</v>
+        <v>9850.400391</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>10146.709961</v>
+        <v>10013.490234</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>9991.650391</v>
+        <v>9841.110352</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>10142.009766</v>
+        <v>9964.070312</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>77317900</v>
+        <v>98609200</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>10142.009766</v>
+        <v>9964.070312</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,22 +3445,22 @@
         <v>116</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>10038.950195</v>
+        <v>9744.799805</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>10050.769531</v>
+        <v>9841.860352</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>9923.639648</v>
+        <v>9690.179688</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>9981.240234</v>
+        <v>9833.410156</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>67213700</v>
+        <v>78371600</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>9981.240234</v>
+        <v>9833.410156</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,22 +3468,22 @@
         <v>117</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>10079.030273</v>
+        <v>9392.200195</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>10160.299805</v>
+        <v>9655.919922</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>10011.839844</v>
+        <v>9389.049805</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>10063.129883</v>
+        <v>9629.660156</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>68620600</v>
+        <v>94118800</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>10063.129883</v>
+        <v>9629.660156</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,22 +3491,22 @@
         <v>118</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>10031.179688</v>
+        <v>9437.469727</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>10098.75</v>
+        <v>9507.910156</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>9987.049805</v>
+        <v>9399.69043</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>10066.900391</v>
+        <v>9418.780273</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>87292700</v>
+        <v>88752100</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>10066.900391</v>
+        <v>9418.780273</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,22 +3514,22 @@
         <v>119</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>10058.490234</v>
+        <v>9449.570312</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>10109.860352</v>
+        <v>9530.589844</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>9984.549805</v>
+        <v>9304.009766</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>10068.299805</v>
+        <v>9373.259766</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>97397700</v>
+        <v>130651600</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>10068.299805</v>
+        <v>9373.259766</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,22 +3537,22 @@
         <v>120</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>9941.990234</v>
+        <v>9656.049805</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>10001.870117</v>
+        <v>9659.410156</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>9919.410156</v>
+        <v>9506.839844</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>9930.709961</v>
+        <v>9532.610352</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>93416800</v>
+        <v>94771000</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>9930.709961</v>
+        <v>9532.610352</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,22 +3560,22 @@
         <v>121</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>9850.400391</v>
+        <v>9797.660156</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>10013.490234</v>
+        <v>9808.990234</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>9841.110352</v>
+        <v>9701.150391</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>9964.070312</v>
+        <v>9709.089844</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>98609200</v>
+        <v>0</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>9964.070312</v>
+        <v>9709.089844</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,22 +3583,22 @@
         <v>122</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>9744.799805</v>
+        <v>9742.839844</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>9841.860352</v>
+        <v>9806.469727</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>9690.179688</v>
+        <v>9657.629883</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>9833.410156</v>
+        <v>9776.120117</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>78371600</v>
+        <v>98912000</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>9833.410156</v>
+        <v>9776.120117</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,22 +3606,22 @@
         <v>123</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>9392.200195</v>
+        <v>9566.070312</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>9655.919922</v>
+        <v>9695.589844</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>9389.049805</v>
+        <v>9513.519531</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>9629.660156</v>
+        <v>9680.089844</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>94118800</v>
+        <v>132789700</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>9629.660156</v>
+        <v>9680.089844</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,22 +3629,22 @@
         <v>124</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>9437.469727</v>
+        <v>9557.69043</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>9507.910156</v>
+        <v>9640.389648</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>9399.69043</v>
+        <v>9506.290039</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>9418.780273</v>
+        <v>9612.269531</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>88752100</v>
+        <v>112349200</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>9418.780273</v>
+        <v>9612.269531</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,22 +3652,22 @@
         <v>125</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>9449.570312</v>
+        <v>9458.379883</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>9530.589844</v>
+        <v>9554.410156</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>9304.009766</v>
+        <v>9419.379883</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>9373.259766</v>
+        <v>9447.280273</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>130651600</v>
+        <v>132423300</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>9373.259766</v>
+        <v>9447.280273</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,22 +3675,22 @@
         <v>126</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>9656.049805</v>
+        <v>9516.919922</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>9659.410156</v>
+        <v>9589.280273</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>9506.839844</v>
+        <v>9214.099609</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>9532.610352</v>
+        <v>9268.660156</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>94771000</v>
+        <v>203619000</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>9532.610352</v>
+        <v>9268.660156</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,22 +3698,22 @@
         <v>127</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>9797.660156</v>
+        <v>9237.620117</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>9808.990234</v>
+        <v>9720.120117</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>9701.150391</v>
+        <v>9226.150391</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>9709.089844</v>
+        <v>9557.160156</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0</v>
+        <v>315433800</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>9709.089844</v>
+        <v>9557.160156</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,22 +3721,22 @@
         <v>128</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>9742.839844</v>
+        <v>10122.469727</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>9806.469727</v>
+        <v>10340.839844</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>9657.629883</v>
+        <v>10104.919922</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>9776.120117</v>
+        <v>10257.030273</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>98912000</v>
+        <v>106926000</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>9776.120117</v>
+        <v>10257.030273</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,22 +3744,22 @@
         <v>129</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>9566.070312</v>
+        <v>10084.740234</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>9695.589844</v>
+        <v>10149.80957</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>9513.519531</v>
+        <v>10043.679688</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>9680.089844</v>
+        <v>10071.05957</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>132789700</v>
+        <v>78047400</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>9680.089844</v>
+        <v>10071.05957</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,22 +3767,22 @@
         <v>130</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>9557.69043</v>
+        <v>9943.839844</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>9640.389648</v>
+        <v>10051.070312</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>9506.290039</v>
+        <v>9930.099609</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>9612.269531</v>
+        <v>10015.540039</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>112349200</v>
+        <v>80558600</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>9612.269531</v>
+        <v>10015.540039</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,22 +3790,22 @@
         <v>131</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>9458.379883</v>
+        <v>9850.589844</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>9554.410156</v>
+        <v>9996.55957</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>9419.379883</v>
+        <v>9850.589844</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>9447.280273</v>
+        <v>9962.019531</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>132423300</v>
+        <v>91517300</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>9447.280273</v>
+        <v>9962.019531</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,22 +3813,22 @@
         <v>132</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>9516.919922</v>
+        <v>9620.919922</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>9589.280273</v>
+        <v>9705.290039</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>9214.099609</v>
+        <v>9578.150391</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>9268.660156</v>
+        <v>9631.360352</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>203619000</v>
+        <v>141523500</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>9268.660156</v>
+        <v>9631.360352</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,22 +3836,22 @@
         <v>133</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>9237.620117</v>
+        <v>9480.429688</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>9720.120117</v>
+        <v>9582.379883</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>9226.150391</v>
+        <v>9432.870117</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>9557.160156</v>
+        <v>9550.469727</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>315433800</v>
+        <v>98482200</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>9557.160156</v>
+        <v>9550.469727</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,22 +3859,22 @@
         <v>134</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>10122.469727</v>
+        <v>9589.469727</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>10340.839844</v>
+        <v>9665.209961</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>10104.919922</v>
+        <v>9567.150391</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>10257.030273</v>
+        <v>9606.709961</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>106926000</v>
+        <v>92442400</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>10257.030273</v>
+        <v>9606.709961</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,22 +3882,22 @@
         <v>135</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>10084.740234</v>
+        <v>9595.169922</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>10149.80957</v>
+        <v>9620.839844</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>10043.679688</v>
+        <v>9507.509766</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>10071.05957</v>
+        <v>9519.200195</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>78047400</v>
+        <v>99750300</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>10071.05957</v>
+        <v>9519.200195</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,22 +3905,22 @@
         <v>136</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>9943.839844</v>
+        <v>9715.780273</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>10051.070312</v>
+        <v>9755.230469</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>9930.099609</v>
+        <v>9657.44043</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>10015.540039</v>
+        <v>9657.44043</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>80558600</v>
+        <v>99255400</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>10015.540039</v>
+        <v>9657.44043</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,22 +3928,22 @@
         <v>137</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>9850.589844</v>
+        <v>10024.69043</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>9996.55957</v>
+        <v>10026.490234</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>9850.589844</v>
+        <v>9819.120117</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>9962.019531</v>
+        <v>9834.620117</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>91517300</v>
+        <v>105884800</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>9962.019531</v>
+        <v>9834.620117</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,22 +3951,22 @@
         <v>138</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>9620.919922</v>
+        <v>10184.480469</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>9705.290039</v>
+        <v>10187.070312</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>9578.150391</v>
+        <v>10050.030273</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>9631.360352</v>
+        <v>10088.870117</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>141523500</v>
+        <v>105132000</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>9631.360352</v>
+        <v>10088.870117</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,22 +3974,22 @@
         <v>139</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>9480.429688</v>
+        <v>10246.490234</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>9582.379883</v>
+        <v>10266.370117</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>9432.870117</v>
+        <v>10177.44043</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>9550.469727</v>
+        <v>10217.030273</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>98482200</v>
+        <v>73494900</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>9550.469727</v>
+        <v>10217.030273</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,22 +3997,22 @@
         <v>140</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>9589.469727</v>
+        <v>10196.169922</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>9665.209961</v>
+        <v>10312.530273</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>9567.150391</v>
+        <v>10183.19043</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>9606.709961</v>
+        <v>10287.679688</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>92442400</v>
+        <v>76138600</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>9606.709961</v>
+        <v>10287.679688</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,22 +4020,22 @@
         <v>141</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>9595.169922</v>
+        <v>10105.089844</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>9620.839844</v>
+        <v>10148.959961</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>9507.509766</v>
+        <v>10092.860352</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>9519.200195</v>
+        <v>10121.080078</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>99750300</v>
+        <v>0</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>9519.200195</v>
+        <v>10121.080078</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,22 +4043,22 @@
         <v>142</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>9715.780273</v>
+        <v>10237.580078</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>9755.230469</v>
+        <v>10282.719727</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>9657.44043</v>
+        <v>10040.870117</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>9657.44043</v>
+        <v>10103.259766</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>99255400</v>
+        <v>83303400</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>9657.44043</v>
+        <v>10103.259766</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,22 +4066,22 @@
         <v>143</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>10024.69043</v>
+        <v>10199.200195</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>10026.490234</v>
+        <v>10241.75</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>9819.120117</v>
+        <v>10156.860352</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>9834.620117</v>
+        <v>10208</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>105884800</v>
+        <v>61224500</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>9834.620117</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,22 +4089,22 @@
         <v>144</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>10184.480469</v>
+        <v>10242.780273</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>10187.070312</v>
+        <v>10283.820312</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>10050.030273</v>
+        <v>10160.240234</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>10088.870117</v>
+        <v>10204.44043</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>105132000</v>
+        <v>77146000</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>10088.870117</v>
+        <v>10204.44043</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,22 +4112,22 @@
         <v>145</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>10246.490234</v>
+        <v>10356.139648</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>10266.370117</v>
+        <v>10365.240234</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>10177.44043</v>
+        <v>10243.219727</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>10217.030273</v>
+        <v>10262.740234</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>73494900</v>
+        <v>0</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>10217.030273</v>
+        <v>10262.740234</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,22 +4135,22 @@
         <v>146</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>10196.169922</v>
+        <v>10293.429688</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>10312.530273</v>
+        <v>10338.410156</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>10183.19043</v>
+        <v>10286.330078</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>10287.679688</v>
+        <v>10333.230469</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>76138600</v>
+        <v>34335000</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>10287.679688</v>
+        <v>10333.230469</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,22 +4158,22 @@
         <v>147</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>10105.089844</v>
+        <v>10257.910156</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>10148.959961</v>
+        <v>10298.759766</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>10092.860352</v>
+        <v>10241.980469</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>10121.080078</v>
+        <v>10286.30957</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0</v>
+        <v>62475500</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>10121.080078</v>
+        <v>10286.30957</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,22 +4181,22 @@
         <v>148</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>10237.580078</v>
+        <v>10213.870117</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>10282.719727</v>
+        <v>10286.230469</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>10040.870117</v>
+        <v>10207.089844</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>10103.259766</v>
+        <v>10272.709961</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>83303400</v>
+        <v>72448900</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>10103.259766</v>
+        <v>10272.709961</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,22 +4204,22 @@
         <v>149</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>10199.200195</v>
+        <v>10143.370117</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>10241.75</v>
+        <v>10233.05957</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>10156.860352</v>
+        <v>10130.679688</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>10208</v>
+        <v>10205.209961</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>61224500</v>
+        <v>94760400</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>10208</v>
+        <v>10205.209961</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,22 +4227,22 @@
         <v>150</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>10242.780273</v>
+        <v>9798.94043</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>10283.820312</v>
+        <v>10077.650391</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>10160.240234</v>
+        <v>9773.799805</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>10204.44043</v>
+        <v>10057.30957</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>77146000</v>
+        <v>82684200</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>10204.44043</v>
+        <v>10057.30957</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,22 +4250,22 @@
         <v>151</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>10356.139648</v>
+        <v>9891.379883</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>10365.240234</v>
+        <v>9971.740234</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>10243.219727</v>
+        <v>9811.740234</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>10262.740234</v>
+        <v>9842.290039</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0</v>
+        <v>74592500</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>10262.740234</v>
+        <v>9842.290039</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,22 +4273,22 @@
         <v>152</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>10293.429688</v>
+        <v>9878.490234</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>10338.410156</v>
+        <v>9921.589844</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>10286.330078</v>
+        <v>9852.709961</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>10333.230469</v>
+        <v>9916.019531</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>34335000</v>
+        <v>75907800</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>10333.230469</v>
+        <v>9916.019531</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,22 +4296,22 @@
         <v>153</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>10257.910156</v>
+        <v>9847.639648</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>10298.759766</v>
+        <v>9899.860352</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>10241.980469</v>
+        <v>9773.719727</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>10286.30957</v>
+        <v>9795.889648</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>62475500</v>
+        <v>90585700</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>10286.30957</v>
+        <v>9795.889648</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,22 +4319,22 @@
         <v>154</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>10213.870117</v>
+        <v>9828.049805</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>10286.230469</v>
+        <v>9946.269531</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>10207.089844</v>
+        <v>9811.860352</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>10272.709961</v>
+        <v>9943.230469</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>72448900</v>
+        <v>74548000</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>10272.709961</v>
+        <v>9943.230469</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,22 +4342,22 @@
         <v>155</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>10143.370117</v>
+        <v>10016.790039</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>10233.05957</v>
+        <v>10080.30957</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>10130.679688</v>
+        <v>9846.910156</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>10205.209961</v>
+        <v>9890.19043</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>94760400</v>
+        <v>95625700</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>10205.209961</v>
+        <v>9890.19043</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,22 +4365,22 @@
         <v>156</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>9798.94043</v>
+        <v>9794.830078</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>10077.650391</v>
+        <v>9979.929688</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>9773.799805</v>
+        <v>9767.94043</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>10057.30957</v>
+        <v>9952.900391</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>82684200</v>
+        <v>82547100</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>10057.30957</v>
+        <v>9952.900391</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,22 +4388,22 @@
         <v>157</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>9891.379883</v>
+        <v>9899.900391</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>9971.740234</v>
+        <v>10078.19043</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>9811.740234</v>
+        <v>9838.120117</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>9842.290039</v>
+        <v>9862.120117</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>74592500</v>
+        <v>100043000</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>9842.290039</v>
+        <v>9862.120117</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,22 +4411,22 @@
         <v>158</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>9878.490234</v>
+        <v>10055.400391</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>9921.589844</v>
+        <v>10055.700195</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>9852.709961</v>
+        <v>9950.110352</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>9916.019531</v>
+        <v>9975.320312</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>75907800</v>
+        <v>94369700</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>9916.019531</v>
+        <v>9975.320312</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,22 +4434,22 @@
         <v>159</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>9847.639648</v>
+        <v>10057.530273</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>9899.860352</v>
+        <v>10106.929688</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>9773.719727</v>
+        <v>9994.580078</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>9795.889648</v>
+        <v>10045.44043</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>90585700</v>
+        <v>80519600</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>9795.889648</v>
+        <v>10045.44043</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,22 +4457,22 @@
         <v>160</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>9828.049805</v>
+        <v>9929.19043</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>9946.269531</v>
+        <v>10068.530273</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>9811.860352</v>
+        <v>9878.709961</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>9943.230469</v>
+        <v>9980.490234</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>74548000</v>
+        <v>77780400</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>9943.230469</v>
+        <v>9980.490234</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,22 +4480,22 @@
         <v>161</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>10016.790039</v>
+        <v>9805.389648</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>10080.30957</v>
+        <v>9917.629883</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>9846.910156</v>
+        <v>9737</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>9890.19043</v>
+        <v>9869.950195</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>95625700</v>
+        <v>87146300</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>9890.19043</v>
+        <v>9869.950195</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,22 +4503,22 @@
         <v>162</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>9794.830078</v>
+        <v>9849.700195</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>9979.929688</v>
+        <v>9921.370117</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>9767.94043</v>
+        <v>9805.549805</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>9952.900391</v>
+        <v>9851.860352</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>82547100</v>
+        <v>0</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>9952.900391</v>
+        <v>9851.860352</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,22 +4526,22 @@
         <v>163</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>9899.900391</v>
+        <v>9925.25</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>10078.19043</v>
+        <v>9959.419922</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>9838.120117</v>
+        <v>9812.730469</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>9862.120117</v>
+        <v>9828.25</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>100043000</v>
+        <v>99824300</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>9862.120117</v>
+        <v>9828.25</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,22 +4549,22 @@
         <v>164</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>10055.400391</v>
+        <v>10052.549805</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>10055.700195</v>
+        <v>10061.950195</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>9950.110352</v>
+        <v>9918.429688</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>9975.320312</v>
+        <v>9926.769531</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>94369700</v>
+        <v>125616200</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>9975.320312</v>
+        <v>9926.769531</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,22 +4572,22 @@
         <v>165</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>10057.530273</v>
+        <v>10091.169922</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>10106.929688</v>
+        <v>10153.900391</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>9994.580078</v>
+        <v>10066.339844</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>10045.44043</v>
+        <v>10123.269531</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>80519600</v>
+        <v>60421600</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>10045.44043</v>
+        <v>10123.269531</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,22 +4595,22 @@
         <v>166</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>9929.19043</v>
+        <v>10235.469727</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>10068.530273</v>
+        <v>10252.080078</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>9878.709961</v>
+        <v>10038.969727</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>9980.490234</v>
+        <v>10038.969727</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>77780400</v>
+        <v>109096100</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>9980.490234</v>
+        <v>10038.969727</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,22 +4618,22 @@
         <v>167</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>9805.389648</v>
+        <v>10222.110352</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>9917.629883</v>
+        <v>10331.929688</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>9737</v>
+        <v>10125.519531</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>9869.950195</v>
+        <v>10321.150391</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>87146300</v>
+        <v>90272400</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>9869.950195</v>
+        <v>10321.150391</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,22 +4641,22 @@
         <v>168</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>9849.700195</v>
+        <v>10283.099609</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>9921.370117</v>
+        <v>10323.25</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>9805.549805</v>
+        <v>10220.570312</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>9851.860352</v>
+        <v>10299.830078</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>0</v>
+        <v>96099700</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>9851.860352</v>
+        <v>10299.830078</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,22 +4664,22 @@
         <v>169</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>9925.25</v>
+        <v>10359.769531</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>9959.419922</v>
+        <v>10385.230469</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>9812.730469</v>
+        <v>10213.549805</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>9828.25</v>
+        <v>10259.589844</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>99824300</v>
+        <v>77506700</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>9828.25</v>
+        <v>10259.589844</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,22 +4687,22 @@
         <v>170</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>10052.549805</v>
+        <v>10379.160156</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>10061.950195</v>
+        <v>10399.299805</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>9918.429688</v>
+        <v>10233.419922</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>9926.769531</v>
+        <v>10294.349609</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>125616200</v>
+        <v>72904900</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>9926.769531</v>
+        <v>10294.349609</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,22 +4710,22 @@
         <v>171</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>10091.169922</v>
+        <v>10377.219727</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>10153.900391</v>
+        <v>10422.860352</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>10066.339844</v>
+        <v>10324.830078</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>10123.269531</v>
+        <v>10373.490234</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>60421600</v>
+        <v>81023600</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>10123.269531</v>
+        <v>10373.490234</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,22 +4733,22 @@
         <v>172</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>10235.469727</v>
+        <v>10456.990234</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>10252.080078</v>
+        <v>10474.379883</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>10038.969727</v>
+        <v>10341.969727</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>10038.969727</v>
+        <v>10435.730469</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>109096100</v>
+        <v>98372000</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>10038.969727</v>
+        <v>10435.730469</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,22 +4756,22 @@
         <v>173</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>10222.110352</v>
+        <v>10312.639648</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>10331.929688</v>
+        <v>10440.129883</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>10125.519531</v>
+        <v>10304.139648</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>10321.150391</v>
+        <v>10421.290039</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>90272400</v>
+        <v>93428400</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>10321.150391</v>
+        <v>10421.290039</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,22 +4779,22 @@
         <v>174</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>10283.099609</v>
+        <v>10170.179688</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>10323.25</v>
+        <v>10370.799805</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>10220.570312</v>
+        <v>10150.669922</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>10299.830078</v>
+        <v>10349.589844</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>96099700</v>
+        <v>96480300</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>10299.830078</v>
+        <v>10349.589844</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,22 +4802,22 @@
         <v>175</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>10359.769531</v>
+        <v>9933.700195</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>10385.230469</v>
+        <v>10147.849609</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>10213.549805</v>
+        <v>9920.900391</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>10259.589844</v>
+        <v>10120.30957</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>77506700</v>
+        <v>66507700</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>10259.589844</v>
+        <v>10120.30957</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,22 +4825,22 @@
         <v>176</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>10379.160156</v>
+        <v>10063.889648</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>10399.299805</v>
+        <v>10070.040039</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>10233.419922</v>
+        <v>10020.339844</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>10294.349609</v>
+        <v>10051.570312</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>72904900</v>
+        <v>79507400</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>10294.349609</v>
+        <v>10051.570312</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,22 +4848,22 @@
         <v>177</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>10377.219727</v>
+        <v>10042.280273</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>10422.860352</v>
+        <v>10098.44043</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>10324.830078</v>
+        <v>10016.169922</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>10373.490234</v>
+        <v>10093.650391</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>81023600</v>
+        <v>79620200</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>10373.490234</v>
+        <v>10093.650391</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,22 +4871,22 @@
         <v>178</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>10456.990234</v>
+        <v>9901.129883</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>10474.379883</v>
+        <v>10026.099609</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>10341.969727</v>
+        <v>9893.419922</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>10435.730469</v>
+        <v>10026.099609</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>98372000</v>
+        <v>103441800</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>10435.730469</v>
+        <v>10026.099609</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,22 +4894,22 @@
         <v>179</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>10312.639648</v>
+        <v>9716.75</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>10440.129883</v>
+        <v>9770.469727</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>10304.139648</v>
+        <v>9617.830078</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>10421.290039</v>
+        <v>9761.469727</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>93428400</v>
+        <v>73635500</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>10421.290039</v>
+        <v>9761.469727</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,22 +4917,22 @@
         <v>180</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>10170.179688</v>
+        <v>9595.55957</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>10370.799805</v>
+        <v>9751.929688</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>10150.669922</v>
+        <v>9524.660156</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>10349.589844</v>
+        <v>9682.990234</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>96480300</v>
+        <v>76125300</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>10349.589844</v>
+        <v>9682.990234</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,22 +4940,22 @@
         <v>181</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>9933.700195</v>
+        <v>9576.400391</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>10147.849609</v>
+        <v>9675.030273</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>9920.900391</v>
+        <v>9572.570312</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>10120.30957</v>
+        <v>9622.259766</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>66507700</v>
+        <v>75984700</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>10120.30957</v>
+        <v>9622.259766</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,22 +4963,22 @@
         <v>182</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>10063.889648</v>
+        <v>9648.549805</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>10070.040039</v>
+        <v>9702.179688</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>10020.339844</v>
+        <v>9484.75</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>10051.570312</v>
+        <v>9530.620117</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>79507400</v>
+        <v>80710200</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>10051.570312</v>
+        <v>9530.620117</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,22 +4986,22 @@
         <v>183</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>10042.280273</v>
+        <v>9582.459961</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>10098.44043</v>
+        <v>9635.910156</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>10016.169922</v>
+        <v>9505.900391</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>10093.650391</v>
+        <v>9624.509766</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>79620200</v>
+        <v>89810800</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>10093.650391</v>
+        <v>9624.509766</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,22 +5009,22 @@
         <v>184</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>9901.129883</v>
+        <v>9647.80957</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>10026.099609</v>
+        <v>9661.299805</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>9893.419922</v>
+        <v>9553.169922</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>10026.099609</v>
+        <v>9563.360352</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>103441800</v>
+        <v>90899600</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>10026.099609</v>
+        <v>9563.360352</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,22 +5032,22 @@
         <v>185</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>9716.75</v>
+        <v>9789.769531</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>9770.469727</v>
+        <v>9907.049805</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>9617.830078</v>
+        <v>9732.820312</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>9761.469727</v>
+        <v>9822.080078</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>73635500</v>
+        <v>71278700</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>9761.469727</v>
+        <v>9822.080078</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,22 +5055,22 @@
         <v>186</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>9595.55957</v>
+        <v>9833.259766</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>9751.929688</v>
+        <v>9851.30957</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>9524.660156</v>
+        <v>9675.5</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>9682.990234</v>
+        <v>9794.639648</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>76125300</v>
+        <v>94714400</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>9682.990234</v>
+        <v>9794.639648</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,22 +5078,22 @@
         <v>187</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>9576.400391</v>
+        <v>9997.44043</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>9675.030273</v>
+        <v>10021.339844</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>9572.570312</v>
+        <v>9947.019531</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>9622.259766</v>
+        <v>9965.509766</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>75984700</v>
+        <v>81993600</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>9622.259766</v>
+        <v>9965.509766</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,22 +5101,22 @@
         <v>188</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>9648.549805</v>
+        <v>9951.679688</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>9702.179688</v>
+        <v>10097.700195</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>9484.75</v>
+        <v>9947.259766</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>9530.620117</v>
+        <v>10046.610352</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>80710200</v>
+        <v>86802100</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>9530.620117</v>
+        <v>10046.610352</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,22 +5124,22 @@
         <v>189</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>9582.459961</v>
+        <v>9900.879883</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>9635.910156</v>
+        <v>9947.030273</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>9505.900391</v>
+        <v>9808.480469</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>9624.509766</v>
+        <v>9887.94043</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>89810800</v>
+        <v>65531300</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>9624.509766</v>
+        <v>9887.94043</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,22 +5147,22 @@
         <v>190</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>9647.80957</v>
+        <v>9974.599609</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>9661.299805</v>
+        <v>9977.990234</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>9553.169922</v>
+        <v>9845.370117</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>9563.360352</v>
+        <v>9851.349609</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>90899600</v>
+        <v>71212100</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>9563.360352</v>
+        <v>9851.349609</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,22 +5170,22 @@
         <v>191</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>9789.769531</v>
+        <v>10046.94043</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>9907.049805</v>
+        <v>10112.169922</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>9732.820312</v>
+        <v>9964.629883</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>9822.080078</v>
+        <v>10022.929688</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>71278700</v>
+        <v>80750700</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>9822.080078</v>
+        <v>10022.929688</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,22 +5193,22 @@
         <v>192</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>9833.259766</v>
+        <v>9836.280273</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>9851.30957</v>
+        <v>9990</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>9675.5</v>
+        <v>9762.570312</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>9794.639648</v>
+        <v>9990</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>94714400</v>
+        <v>79178900</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>9794.639648</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,22 +5216,22 @@
         <v>193</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>9997.44043</v>
+        <v>9893.259766</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>10021.339844</v>
+        <v>10095.459961</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>9947.019531</v>
+        <v>9863.830078</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>9965.509766</v>
+        <v>9948.639648</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>81993600</v>
+        <v>76585600</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>9965.509766</v>
+        <v>9948.639648</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,22 +5239,22 @@
         <v>194</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>9951.679688</v>
+        <v>9905.669922</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>10097.700195</v>
+        <v>9961.480469</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>9947.259766</v>
+        <v>9822.519531</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>10046.610352</v>
+        <v>9950.799805</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>86802100</v>
+        <v>202856000</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>10046.610352</v>
+        <v>9950.799805</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,22 +5262,22 @@
         <v>195</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>9900.879883</v>
+        <v>10051.69043</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>9947.030273</v>
+        <v>10055.290039</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>9808.480469</v>
+        <v>9753.040039</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>9887.94043</v>
+        <v>9892.200195</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>65531300</v>
+        <v>111213600</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>9887.94043</v>
+        <v>9892.200195</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,22 +5285,22 @@
         <v>196</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>9974.599609</v>
+        <v>9971.040039</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>9977.990234</v>
+        <v>10021.700195</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>9845.370117</v>
+        <v>9917.919922</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>9851.349609</v>
+        <v>9983.410156</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>71212100</v>
+        <v>90826100</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>9851.349609</v>
+        <v>9983.410156</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,22 +5308,22 @@
         <v>197</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>10046.94043</v>
+        <v>9941.459961</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>10112.169922</v>
+        <v>9973.580078</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>9964.629883</v>
+        <v>9890.120117</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>10022.929688</v>
+        <v>9933.849609</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>80750700</v>
+        <v>75643300</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>10022.929688</v>
+        <v>9933.849609</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,22 +5331,22 @@
         <v>198</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>9836.280273</v>
+        <v>9948.209961</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>9990</v>
+        <v>10039.610352</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>9762.570312</v>
+        <v>9936.05957</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>9990</v>
+        <v>9990.259766</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>79178900</v>
+        <v>88695100</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>9990</v>
+        <v>9990.259766</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,22 +5354,22 @@
         <v>199</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>9893.259766</v>
+        <v>9672.049805</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>10095.459961</v>
+        <v>9833.900391</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>9863.830078</v>
+        <v>9642.790039</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>9948.639648</v>
+        <v>9831.129883</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>76585600</v>
+        <v>115386500</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>9948.639648</v>
+        <v>9831.129883</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,22 +5377,22 @@
         <v>200</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>9905.669922</v>
+        <v>9697.639648</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>9961.480469</v>
+        <v>9995.839844</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>9822.519531</v>
+        <v>9498.150391</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>9950.799805</v>
+        <v>9498.150391</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>202856000</v>
+        <v>172179300</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>9950.799805</v>
+        <v>9498.150391</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,22 +5400,22 @@
         <v>201</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>10051.69043</v>
+        <v>9700.160156</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>10055.290039</v>
+        <v>9838.950195</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>9753.040039</v>
+        <v>9679.19043</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>9892.200195</v>
+        <v>9723.089844</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>111213600</v>
+        <v>97872200</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>9892.200195</v>
+        <v>9723.089844</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,22 +5423,22 @@
         <v>202</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>9971.040039</v>
+        <v>9688.469727</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>10021.700195</v>
+        <v>9785.049805</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>9917.919922</v>
+        <v>9617.69043</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>9983.410156</v>
+        <v>9692.820312</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>90826100</v>
+        <v>92880100</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>9983.410156</v>
+        <v>9692.820312</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,22 +5446,22 @@
         <v>203</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>9941.459961</v>
+        <v>9764.080078</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>9973.580078</v>
+        <v>9803.730469</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>9890.120117</v>
+        <v>9690</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>9933.849609</v>
+        <v>9778.929688</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>75643300</v>
+        <v>75802500</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>9933.849609</v>
+        <v>9778.929688</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,22 +5469,22 @@
         <v>204</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>9948.209961</v>
+        <v>9800.860352</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>10039.610352</v>
+        <v>9899.110352</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>9936.05957</v>
+        <v>9742.759766</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>9990.259766</v>
+        <v>9824.169922</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>88695100</v>
+        <v>90643400</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>9990.259766</v>
+        <v>9824.169922</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,22 +5492,22 @@
         <v>205</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>9672.049805</v>
+        <v>9807.05957</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>9833.900391</v>
+        <v>9808.519531</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>9642.790039</v>
+        <v>9709.679688</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>9831.129883</v>
+        <v>9751.919922</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>115386500</v>
+        <v>82689300</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>9831.129883</v>
+        <v>9751.919922</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,22 +5515,22 @@
         <v>206</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>9697.639648</v>
+        <v>9780.839844</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>9995.839844</v>
+        <v>9837.110352</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>9498.150391</v>
+        <v>9695.980469</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>9498.150391</v>
+        <v>9776.620117</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>172179300</v>
+        <v>103256100</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>9498.150391</v>
+        <v>9776.620117</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,22 +5538,22 @@
         <v>207</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>9700.160156</v>
+        <v>9482.660156</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>9838.950195</v>
+        <v>9719.019531</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>9679.19043</v>
+        <v>9471.089844</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>9723.089844</v>
+        <v>9717.160156</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>97872200</v>
+        <v>96557000</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>9723.089844</v>
+        <v>9717.160156</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,22 +5561,22 @@
         <v>208</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>9688.469727</v>
+        <v>9424.929688</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>9785.049805</v>
+        <v>9498.570312</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>9617.69043</v>
+        <v>9332.419922</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>9692.820312</v>
+        <v>9495.400391</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>92880100</v>
+        <v>90978700</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>9692.820312</v>
+        <v>9495.400391</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,22 +5584,22 @@
         <v>209</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>9764.080078</v>
+        <v>9454.519531</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>9803.730469</v>
+        <v>9576.879883</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>9690</v>
+        <v>9436.330078</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>9778.929688</v>
+        <v>9513.299805</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>75802500</v>
+        <v>95662100</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>9778.929688</v>
+        <v>9513.299805</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,22 +5607,22 @@
         <v>210</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>9800.860352</v>
+        <v>9277.019531</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>9899.110352</v>
+        <v>9391.30957</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>9742.759766</v>
+        <v>9199.089844</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>9824.169922</v>
+        <v>9331.480469</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>90643400</v>
+        <v>0</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>9824.169922</v>
+        <v>9331.480469</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5633,22 +5630,22 @@
         <v>211</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>9807.05957</v>
+        <v>9396.480469</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>9808.519531</v>
+        <v>9415.330078</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>9709.679688</v>
+        <v>9125.19043</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>9751.919922</v>
+        <v>9167.799805</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>82689300</v>
+        <v>99216000</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>9751.919922</v>
+        <v>9167.799805</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,22 +5653,22 @@
         <v>212</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>9780.839844</v>
+        <v>9503.120117</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>9837.110352</v>
+        <v>9535.120117</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>9695.980469</v>
+        <v>9405.219727</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>9776.620117</v>
+        <v>9416.769531</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>103256100</v>
+        <v>87240700</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>9776.620117</v>
+        <v>9416.769531</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,22 +5676,22 @@
         <v>213</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>9482.660156</v>
+        <v>9481.370117</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>9719.019531</v>
+        <v>9581.450195</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>9471.089844</v>
+        <v>9477.69043</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>9717.160156</v>
+        <v>9573.589844</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>96557000</v>
+        <v>91063500</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>9717.160156</v>
+        <v>9573.589844</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,22 +5699,22 @@
         <v>214</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>9424.929688</v>
+        <v>9420.509766</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>9498.570312</v>
+        <v>9474.019531</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>9332.419922</v>
+        <v>9319.099609</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>9495.400391</v>
+        <v>9388.049805</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>90978700</v>
+        <v>106544700</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>9495.400391</v>
+        <v>9388.049805</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,22 +5722,22 @@
         <v>215</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>9454.519531</v>
+        <v>9428.009766</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>9576.879883</v>
+        <v>9551.870117</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>9436.330078</v>
+        <v>9349.950195</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>9513.299805</v>
+        <v>9463.639648</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>95662100</v>
+        <v>120087400</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>9513.299805</v>
+        <v>9463.639648</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,22 +5745,22 @@
         <v>216</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>9277.019531</v>
+        <v>9174.280273</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>9391.30957</v>
+        <v>9394.620117</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>9199.089844</v>
+        <v>9156.139648</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>9331.480469</v>
+        <v>9377.209961</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>0</v>
+        <v>124754600</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>9331.480469</v>
+        <v>9377.209961</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,22 +5768,22 @@
         <v>217</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>9396.480469</v>
+        <v>9242.75</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>9415.330078</v>
+        <v>9269.05957</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>9125.19043</v>
+        <v>9079.19043</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>9167.799805</v>
+        <v>9135.110352</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>99216000</v>
+        <v>102833800</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>9167.799805</v>
+        <v>9135.110352</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,22 +5791,22 @@
         <v>218</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>9503.120117</v>
+        <v>9163.540039</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>9535.120117</v>
+        <v>9249.459961</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>9405.219727</v>
+        <v>9134.759766</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>9416.769531</v>
+        <v>9206.839844</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>87240700</v>
+        <v>123366600</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>9416.769531</v>
+        <v>9206.839844</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,22 +5814,22 @@
         <v>219</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>9481.370117</v>
+        <v>8854.400391</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>9581.450195</v>
+        <v>8967.509766</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>9477.69043</v>
+        <v>8815.769531</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>9573.589844</v>
+        <v>8967.509766</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>91063500</v>
+        <v>155657500</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>9573.589844</v>
+        <v>8967.509766</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,22 +5837,22 @@
         <v>220</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>9420.509766</v>
+        <v>8887.889648</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>9474.019531</v>
+        <v>8899.570312</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>9319.099609</v>
+        <v>8699.290039</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>9388.049805</v>
+        <v>8752.870117</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>106544700</v>
+        <v>0</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>9388.049805</v>
+        <v>8752.870117</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,22 +5860,22 @@
         <v>221</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>9428.009766</v>
+        <v>8937.980469</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>9551.870117</v>
+        <v>9128.540039</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>9349.950195</v>
+        <v>8875.450195</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>9463.639648</v>
+        <v>9017.290039</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>120087400</v>
+        <v>132717600</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>9463.639648</v>
+        <v>9017.290039</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,22 +5883,22 @@
         <v>222</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>9174.280273</v>
+        <v>8980.709961</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>9394.620117</v>
+        <v>9041.900391</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>9156.139648</v>
+        <v>8772.879883</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>9377.209961</v>
+        <v>8879.400391</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>124754600</v>
+        <v>155008600</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>9377.209961</v>
+        <v>8879.400391</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,22 +5906,22 @@
         <v>223</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>9242.75</v>
+        <v>9329.870117</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>9269.05957</v>
+        <v>9337.519531</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>9079.19043</v>
+        <v>8937.980469</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>9135.110352</v>
+        <v>8979.360352</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>102833800</v>
+        <v>149833600</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>9135.110352</v>
+        <v>8979.360352</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,22 +5929,22 @@
         <v>224</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>9163.540039</v>
+        <v>9375.290039</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>9249.459961</v>
+        <v>9469.709961</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>9134.759766</v>
+        <v>9250.839844</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>9206.839844</v>
+        <v>9286.230469</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>123366600</v>
+        <v>130810300</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>9206.839844</v>
+        <v>9286.230469</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,22 +5952,22 @@
         <v>225</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>8854.400391</v>
+        <v>9522.669922</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>8967.509766</v>
+        <v>9539.919922</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>8815.769531</v>
+        <v>9270.089844</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>8967.509766</v>
+        <v>9393.360352</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>155657500</v>
+        <v>129753200</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>8967.509766</v>
+        <v>9393.360352</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,22 +5975,22 @@
         <v>226</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>8887.889648</v>
+        <v>9541.530273</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>8899.570312</v>
+        <v>9577.200195</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>8699.290039</v>
+        <v>9350.980469</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>8752.870117</v>
+        <v>9434.820312</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>0</v>
+        <v>121338700</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>8752.870117</v>
+        <v>9434.820312</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,22 +5998,22 @@
         <v>227</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>8937.980469</v>
+        <v>9721.179688</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>9128.540039</v>
+        <v>9729.230469</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>8875.450195</v>
+        <v>9536.969727</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>9017.290039</v>
+        <v>9581.040039</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>132717600</v>
+        <v>104622200</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>9017.290039</v>
+        <v>9581.040039</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,22 +6021,22 @@
         <v>228</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>8980.709961</v>
+        <v>9823.730469</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>9041.900391</v>
+        <v>9827.099609</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>8772.879883</v>
+        <v>9638.580078</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>8879.400391</v>
+        <v>9757.879883</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>155008600</v>
+        <v>89947500</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>8879.400391</v>
+        <v>9757.879883</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,22 +6044,22 @@
         <v>229</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>9329.870117</v>
+        <v>9772.580078</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>9337.519531</v>
+        <v>9798.379883</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>8937.980469</v>
+        <v>9656.360352</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>8979.360352</v>
+        <v>9798.110352</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>149833600</v>
+        <v>113659400</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>8979.360352</v>
+        <v>9798.110352</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,22 +6067,22 @@
         <v>230</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>9375.290039</v>
+        <v>9826.280273</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>9469.709961</v>
+        <v>9905.080078</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>9250.839844</v>
+        <v>9594.799805</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>9286.230469</v>
+        <v>9639.589844</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>130810300</v>
+        <v>114211400</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>9286.230469</v>
+        <v>9639.589844</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,22 +6090,22 @@
         <v>231</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>9522.669922</v>
+        <v>9781.419922</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>9539.919922</v>
+        <v>9880.820312</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>9270.089844</v>
+        <v>9728.639648</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>9393.360352</v>
+        <v>9880.820312</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>129753200</v>
+        <v>89168300</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>9393.360352</v>
+        <v>9880.820312</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,22 +6113,22 @@
         <v>232</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>9541.530273</v>
+        <v>9599.55957</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>9577.200195</v>
+        <v>9867.179688</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>9350.980469</v>
+        <v>9563.639648</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>9434.820312</v>
+        <v>9822.75</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>121338700</v>
+        <v>110223600</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>9434.820312</v>
+        <v>9822.75</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,22 +6136,22 @@
         <v>233</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>9721.179688</v>
+        <v>9790.44043</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>9729.230469</v>
+        <v>9800.490234</v>
       </c>
       <c r="D228" s="0" t="n">
-        <v>9536.969727</v>
+        <v>9681.700195</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>9581.040039</v>
+        <v>9736.150391</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>104622200</v>
+        <v>91574700</v>
       </c>
       <c r="G228" s="0" t="n">
-        <v>9581.040039</v>
+        <v>9736.150391</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,22 +6159,22 @@
         <v>234</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>9823.730469</v>
+        <v>9762.549805</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>9827.099609</v>
+        <v>9837.620117</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>9638.580078</v>
+        <v>9704.900391</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>9757.879883</v>
+        <v>9764.879883</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>89947500</v>
+        <v>123692800</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>9757.879883</v>
+        <v>9764.879883</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,22 +6182,22 @@
         <v>235</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>9772.580078</v>
+        <v>9400.69043</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>9798.379883</v>
+        <v>9656.330078</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>9656.360352</v>
+        <v>9348.740234</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>9798.110352</v>
+        <v>9574.160156</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>113659400</v>
+        <v>143298400</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>9798.110352</v>
+        <v>9574.160156</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,22 +6205,22 @@
         <v>236</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>9826.280273</v>
+        <v>9430.129883</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>9905.080078</v>
+        <v>9490.450195</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>9594.799805</v>
+        <v>9314.570312</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>9639.589844</v>
+        <v>9391.639648</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>114211400</v>
+        <v>134060000</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>9639.589844</v>
+        <v>9391.639648</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,22 +6228,22 @@
         <v>237</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>9781.419922</v>
+        <v>9722.639648</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>9880.820312</v>
+        <v>9756.139648</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>9728.639648</v>
+        <v>9626.650391</v>
       </c>
       <c r="E232" s="0" t="n">
-        <v>9880.820312</v>
+        <v>9664.209961</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>89168300</v>
+        <v>99744700</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>9880.820312</v>
+        <v>9664.209961</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,22 +6251,22 @@
         <v>238</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>9599.55957</v>
+        <v>9542.599609</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>9867.179688</v>
+        <v>9657.94043</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>9563.639648</v>
+        <v>9457.950195</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>9822.75</v>
+        <v>9521.849609</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>110223600</v>
+        <v>88536900</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>9822.75</v>
+        <v>9521.849609</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,22 +6274,22 @@
         <v>239</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>9790.44043</v>
+        <v>9778.360352</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>9800.490234</v>
+        <v>9832.919922</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>9681.700195</v>
+        <v>9459.089844</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>9736.150391</v>
+        <v>9545.269531</v>
       </c>
       <c r="F234" s="0" t="n">
-        <v>91574700</v>
+        <v>142005800</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>9736.150391</v>
+        <v>9545.269531</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,22 +6297,22 @@
         <v>240</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>9762.549805</v>
+        <v>9836.849609</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>9837.620117</v>
+        <v>9884.269531</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>9704.900391</v>
+        <v>9614.769531</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>9764.879883</v>
+        <v>9794.200195</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>123692800</v>
+        <v>132910200</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>9764.879883</v>
+        <v>9794.200195</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,22 +6320,22 @@
         <v>241</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>9400.69043</v>
+        <v>10112.349609</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>9656.330078</v>
+        <v>10164.049805</v>
       </c>
       <c r="D236" s="0" t="n">
-        <v>9348.740234</v>
+        <v>9929.070312</v>
       </c>
       <c r="E236" s="0" t="n">
-        <v>9574.160156</v>
+        <v>9960.959961</v>
       </c>
       <c r="F236" s="0" t="n">
-        <v>143298400</v>
+        <v>90834100</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>9574.160156</v>
+        <v>9960.959961</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,22 +6343,22 @@
         <v>242</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>9430.129883</v>
+        <v>9832.820312</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>9490.450195</v>
+        <v>10092.669922</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>9314.570312</v>
+        <v>9832.820312</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>9391.639648</v>
+        <v>9985.429688</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>134060000</v>
+        <v>96690900</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>9391.639648</v>
+        <v>9985.429688</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,22 +6366,22 @@
         <v>243</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>9722.639648</v>
+        <v>9814.040039</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>9756.139648</v>
+        <v>9978.69043</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>9626.650391</v>
+        <v>9813.019531</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>9664.209961</v>
+        <v>9825.070312</v>
       </c>
       <c r="F238" s="0" t="n">
-        <v>99744700</v>
+        <v>89771200</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>9664.209961</v>
+        <v>9825.070312</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,22 +6389,22 @@
         <v>244</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>9542.599609</v>
+        <v>10010.469727</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>9657.94043</v>
+        <v>10122.459961</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>9457.950195</v>
+        <v>9849.339844</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>9521.849609</v>
+        <v>9849.339844</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>88536900</v>
+        <v>95672200</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>9521.849609</v>
+        <v>9849.339844</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,22 +6412,22 @@
         <v>245</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>9778.360352</v>
+        <v>10144.169922</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>9832.919922</v>
+        <v>10145.469727</v>
       </c>
       <c r="D240" s="0" t="n">
-        <v>9459.089844</v>
+        <v>9810.469727</v>
       </c>
       <c r="E240" s="0" t="n">
-        <v>9545.269531</v>
+        <v>9979.849609</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>142005800</v>
+        <v>124188100</v>
       </c>
       <c r="G240" s="0" t="n">
-        <v>9545.269531</v>
+        <v>9979.849609</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,22 +6435,22 @@
         <v>246</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>9836.849609</v>
+        <v>10288.679688</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>9884.269531</v>
+        <v>10288.679688</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>9614.769531</v>
+        <v>10094.179688</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>9794.200195</v>
+        <v>10214.019531</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>132910200</v>
+        <v>87751700</v>
       </c>
       <c r="G241" s="0" t="n">
-        <v>9794.200195</v>
+        <v>10214.019531</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,22 +6458,22 @@
         <v>247</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>10112.349609</v>
+        <v>10373.269531</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>10164.049805</v>
+        <v>10384.259766</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>9929.070312</v>
+        <v>10173.519531</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>9960.959961</v>
+        <v>10310.099609</v>
       </c>
       <c r="F242" s="0" t="n">
-        <v>90834100</v>
+        <v>82348000</v>
       </c>
       <c r="G242" s="0" t="n">
-        <v>9960.959961</v>
+        <v>10310.099609</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,22 +6481,22 @@
         <v>248</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>9832.820312</v>
+        <v>10485.80957</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>10092.669922</v>
+        <v>10485.910156</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>9832.820312</v>
+        <v>10248.580078</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>9985.429688</v>
+        <v>10283.44043</v>
       </c>
       <c r="F243" s="0" t="n">
-        <v>96690900</v>
+        <v>116249000</v>
       </c>
       <c r="G243" s="0" t="n">
-        <v>9985.429688</v>
+        <v>10283.44043</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,22 +6504,22 @@
         <v>249</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>9814.040039</v>
+        <v>10855.169922</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>9978.69043</v>
+        <v>10857.429688</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>9813.019531</v>
+        <v>10743.009766</v>
       </c>
       <c r="E244" s="0" t="n">
-        <v>9825.070312</v>
+        <v>10743.009766</v>
       </c>
       <c r="F244" s="0" t="n">
-        <v>89771200</v>
+        <v>34183100</v>
       </c>
       <c r="G244" s="0" t="n">
-        <v>9825.070312</v>
+        <v>10743.009766</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,22 +6527,22 @@
         <v>250</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>10010.469727</v>
+        <v>10744.959961</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>10122.459961</v>
+        <v>10860.139648</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>9849.339844</v>
+        <v>10731.629883</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>9849.339844</v>
+        <v>10860.139648</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>95672200</v>
+        <v>51747000</v>
       </c>
       <c r="G245" s="0" t="n">
-        <v>9849.339844</v>
+        <v>10860.139648</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,22 +6550,22 @@
         <v>251</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>10144.169922</v>
+        <v>10748.370117</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>10145.469727</v>
+        <v>10756.169922</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>9810.469727</v>
+        <v>10627.459961</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>9979.849609</v>
+        <v>10653.910156</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>124188100</v>
+        <v>34275800</v>
       </c>
       <c r="G246" s="0" t="n">
-        <v>9979.849609</v>
+        <v>10653.910156</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,22 +6573,22 @@
         <v>252</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>10288.679688</v>
+        <v>10623.55957</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>10288.679688</v>
+        <v>10743.320312</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>10094.179688</v>
+        <v>10595.269531</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>10214.019531</v>
+        <v>10727.639648</v>
       </c>
       <c r="F247" s="0" t="n">
-        <v>87751700</v>
+        <v>69265000</v>
       </c>
       <c r="G247" s="0" t="n">
-        <v>10214.019531</v>
+        <v>10727.639648</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,22 +6596,22 @@
         <v>253</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>10373.269531</v>
+        <v>10598.19043</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>10384.259766</v>
+        <v>10623.980469</v>
       </c>
       <c r="D248" s="0" t="n">
-        <v>10173.519531</v>
+        <v>10400.610352</v>
       </c>
       <c r="E248" s="0" t="n">
-        <v>10310.099609</v>
+        <v>10488.75</v>
       </c>
       <c r="F248" s="0" t="n">
-        <v>82348000</v>
+        <v>59880200</v>
       </c>
       <c r="G248" s="0" t="n">
-        <v>10310.099609</v>
+        <v>10488.75</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,22 +6619,22 @@
         <v>254</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>10485.80957</v>
+        <v>10607.200195</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>10485.910156</v>
+        <v>10796.030273</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>10248.580078</v>
+        <v>10497.769531</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>10283.44043</v>
+        <v>10497.769531</v>
       </c>
       <c r="F249" s="0" t="n">
-        <v>116249000</v>
+        <v>77046000</v>
       </c>
       <c r="G249" s="0" t="n">
-        <v>10283.44043</v>
+        <v>10497.769531</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,22 +6642,22 @@
         <v>255</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>10855.169922</v>
+        <v>10639.980469</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>10857.429688</v>
+        <v>10735.849609</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>10743.009766</v>
+        <v>10543.049805</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>10743.009766</v>
+        <v>10608.19043</v>
       </c>
       <c r="F250" s="0" t="n">
-        <v>34183100</v>
+        <v>191158800</v>
       </c>
       <c r="G250" s="0" t="n">
-        <v>10743.009766</v>
+        <v>10608.19043</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,22 +6665,22 @@
         <v>256</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>10744.959961</v>
+        <v>10685.299805</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>10860.139648</v>
+        <v>10829.620117</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>10731.629883</v>
+        <v>10656.389648</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>10860.139648</v>
+        <v>10738.120117</v>
       </c>
       <c r="F251" s="0" t="n">
-        <v>51747000</v>
+        <v>112047900</v>
       </c>
       <c r="G251" s="0" t="n">
-        <v>10860.139648</v>
+        <v>10738.120117</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,22 +6688,22 @@
         <v>257</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>10748.370117</v>
+        <v>10476.05957</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>10756.169922</v>
+        <v>10572.549805</v>
       </c>
       <c r="D252" s="0" t="n">
-        <v>10627.459961</v>
+        <v>10423.780273</v>
       </c>
       <c r="E252" s="0" t="n">
-        <v>10653.910156</v>
+        <v>10469.259766</v>
       </c>
       <c r="F252" s="0" t="n">
-        <v>34275800</v>
+        <v>81802300</v>
       </c>
       <c r="G252" s="0" t="n">
-        <v>10653.910156</v>
+        <v>10469.259766</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,22 +6711,22 @@
         <v>258</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>10623.55957</v>
+        <v>10239.799805</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>10743.320312</v>
+        <v>10482.75</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>10595.269531</v>
+        <v>10237.480469</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>10727.639648</v>
+        <v>10450.379883</v>
       </c>
       <c r="F253" s="0" t="n">
-        <v>69265000</v>
+        <v>98769400</v>
       </c>
       <c r="G253" s="0" t="n">
-        <v>10727.639648</v>
+        <v>10450.379883</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,45 +6734,22 @@
         <v>259</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>10598.19043</v>
+        <v>10406.709961</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>10623.980469</v>
+        <v>10448.650391</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>10400.610352</v>
+        <v>10122.950195</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>10488.75</v>
+        <v>10139.339844</v>
       </c>
       <c r="F254" s="0" t="n">
-        <v>59880200</v>
+        <v>94400500</v>
       </c>
       <c r="G254" s="0" t="n">
-        <v>10488.75</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255" s="0" t="n">
-        <v>10607.200195</v>
-      </c>
-      <c r="C255" s="0" t="n">
-        <v>10796.030273</v>
-      </c>
-      <c r="D255" s="0" t="n">
-        <v>10497.769531</v>
-      </c>
-      <c r="E255" s="0" t="n">
-        <v>10497.769531</v>
-      </c>
-      <c r="F255" s="0" t="n">
-        <v>77046000</v>
-      </c>
-      <c r="G255" s="0" t="n">
-        <v>10497.769531</v>
+        <v>10139.339844</v>
       </c>
     </row>
   </sheetData>
